--- a/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
@@ -145,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,9 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,30 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,38 +210,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,23 +226,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,7 +273,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,19 +317,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,43 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,109 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,10 +528,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,6 +551,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -563,6 +585,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,42 +615,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,7 +903,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
@@ -923,7 +923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3152775" y="12842875"/>
-          <a:ext cx="3829050" cy="6946900"/>
+          <a:ext cx="3952875" cy="6946900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,15 +997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1014,7 +1014,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="13039725"/>
+          <a:off x="5276850" y="13058775"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1153,16 +1153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1171,7 +1171,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5467350" y="13535025"/>
+          <a:off x="5857875" y="13563600"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2831,8 +2831,8 @@
   <sheetPr/>
   <dimension ref="C2:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
@@ -4,17 +4,75 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="版本目录" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+  <si>
+    <t>修订记录</t>
+  </si>
+  <si>
+    <t>文档目录</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>1.主场景规划</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>创建文档</t>
+  </si>
+  <si>
+    <t>蔡文吉</t>
+  </si>
+  <si>
+    <t>1.1设计目的</t>
+  </si>
+  <si>
+    <t>1.2设计思路</t>
+  </si>
+  <si>
+    <t>1.3主场景参考</t>
+  </si>
+  <si>
+    <t>2.主界面</t>
+  </si>
+  <si>
+    <t>3.美术需求</t>
+  </si>
+  <si>
+    <t>3.1界面需求</t>
+  </si>
+  <si>
+    <t>3.2图标需求</t>
+  </si>
+  <si>
+    <t>3.3场景需求</t>
+  </si>
+  <si>
+    <t>4.音效需求</t>
+  </si>
   <si>
     <t>主场景&amp;界面</t>
   </si>
@@ -22,9 +80,6 @@
     <t>主场景规划</t>
   </si>
   <si>
-    <t>主界面布局</t>
-  </si>
-  <si>
     <t>设计目的</t>
   </si>
   <si>
@@ -137,6 +192,93 @@
   </si>
   <si>
     <t>有可进行的剧情时，按钮右上角显示红点</t>
+  </si>
+  <si>
+    <t>美术需求</t>
+  </si>
+  <si>
+    <t>界面需求</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>显示玩家头像及名字信息</t>
+  </si>
+  <si>
+    <t>元宝资源</t>
+  </si>
+  <si>
+    <t>显示元宝资源，购买按钮（+号）</t>
+  </si>
+  <si>
+    <t>下侧选项栏</t>
+  </si>
+  <si>
+    <t>功能按钮栏位</t>
+  </si>
+  <si>
+    <t>图标需求</t>
+  </si>
+  <si>
+    <t>元宝图标</t>
+  </si>
+  <si>
+    <t>货币元宝图标</t>
+  </si>
+  <si>
+    <t>商城图标</t>
+  </si>
+  <si>
+    <t>知交图标</t>
+  </si>
+  <si>
+    <t>卡牌图标</t>
+  </si>
+  <si>
+    <t>道具图标</t>
+  </si>
+  <si>
+    <t>日常任务图标</t>
+  </si>
+  <si>
+    <t>成就图标</t>
+  </si>
+  <si>
+    <t>故事剧情图标</t>
+  </si>
+  <si>
+    <t>场景需求</t>
+  </si>
+  <si>
+    <t>宅院主场景</t>
+  </si>
+  <si>
+    <t>参考图1.3</t>
+  </si>
+  <si>
+    <t>点击时建筑的选中状态</t>
+  </si>
+  <si>
+    <t>音效需求</t>
+  </si>
+  <si>
+    <t>是否循环</t>
+  </si>
+  <si>
+    <t>参考时长</t>
+  </si>
+  <si>
+    <t>主场景BGM</t>
+  </si>
+  <si>
+    <t>古风舒缓的音乐</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>30~60s</t>
   </si>
 </sst>
 </file>
@@ -144,10 +286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -155,6 +297,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,7 +323,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -181,7 +331,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +347,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,8 +391,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,11 +422,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,70 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +459,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,55 +591,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,103 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,8 +671,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,54 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +709,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -623,6 +735,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,143 +785,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,6 +936,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -852,18 +1012,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -880,8 +1040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2790825" y="3761740"/>
-          <a:ext cx="8870950" cy="8331835"/>
+          <a:off x="2771775" y="2609215"/>
+          <a:ext cx="8547735" cy="8331835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,18 +1054,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -922,7 +1082,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3152775" y="12842875"/>
+          <a:off x="3152775" y="11487150"/>
           <a:ext cx="3952875" cy="6946900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -936,18 +1096,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -956,7 +1116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="13134975"/>
+          <a:off x="4095750" y="11830050"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -994,18 +1154,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1014,7 +1174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="13058775"/>
+          <a:off x="5543550" y="11811000"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1151,18 +1311,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1171,7 +1331,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857875" y="13563600"/>
+          <a:off x="5953125" y="12268200"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1308,18 +1468,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1328,7 +1488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="14287500"/>
+          <a:off x="5753100" y="12925425"/>
           <a:ext cx="371475" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1465,18 +1625,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1485,7 +1645,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276725" y="13896340"/>
+          <a:off x="4286250" y="12534265"/>
           <a:ext cx="428625" cy="410210"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1622,18 +1782,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1642,7 +1802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="18726150"/>
+          <a:off x="3267075" y="17306925"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1779,18 +1939,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1799,7 +1959,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="18726150"/>
+          <a:off x="3876675" y="17306925"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1936,18 +2096,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1956,7 +2116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="18735675"/>
+          <a:off x="4419600" y="17316450"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2093,18 +2253,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2113,7 +2273,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="18802350"/>
+          <a:off x="4933950" y="17383125"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2250,18 +2410,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2270,7 +2430,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="18543270"/>
+          <a:off x="5438775" y="17124045"/>
           <a:ext cx="542925" cy="506730"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2407,18 +2567,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2427,7 +2587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6010275" y="18371820"/>
+          <a:off x="6096000" y="16952595"/>
           <a:ext cx="542925" cy="506730"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2829,14 +2989,148 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:P114"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43647</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="11:11">
+      <c r="K5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11">
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="10:10">
+      <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="K11" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="10:10">
+      <c r="J12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="J1:K2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J3" location="Sheet1!D4" display="1.主场景规划"/>
+    <hyperlink ref="K4" location="Sheet1!E5" display="1.1设计目的"/>
+    <hyperlink ref="K5" location="Sheet1!E9" display="1.2设计思路"/>
+    <hyperlink ref="K6" location="Sheet1!E14" display="1.3主场景参考"/>
+    <hyperlink ref="J7" location="Sheet1!D66" display="2.主界面"/>
+    <hyperlink ref="J8" location="Sheet1!D108" display="3.美术需求"/>
+    <hyperlink ref="K9" location="Sheet1!E110" display="3.1界面需求"/>
+    <hyperlink ref="K10" location="Sheet1!E117" display="3.2图标需求"/>
+    <hyperlink ref="K11" location="Sheet1!E129" display="3.3场景需求"/>
+    <hyperlink ref="J12" location="Sheet1!D136" display="4.音效需求"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C2:P139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
     <col min="13" max="13" width="12.875" customWidth="1"/>
     <col min="14" max="14" width="27.125" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
@@ -2845,252 +3139,475 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5">
+        <v>1.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14">
+        <v>1.3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16">
+      <c r="L69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="12:16">
+      <c r="L70" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6">
+      <c r="M70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+    </row>
+    <row r="71" spans="12:16">
+      <c r="L71" s="5">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+    </row>
+    <row r="72" spans="12:16">
+      <c r="L72" s="5">
+        <v>3</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+    </row>
+    <row r="73" spans="12:16">
+      <c r="L73" s="5">
+        <v>4</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+    </row>
+    <row r="74" spans="12:16">
+      <c r="L74" s="5">
+        <v>5</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+    </row>
+    <row r="75" ht="27" spans="12:16">
+      <c r="L75" s="5">
+        <v>6</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P75" s="5"/>
+    </row>
+    <row r="76" spans="12:16">
+      <c r="L76" s="5">
+        <v>7</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="12:16">
+      <c r="L77" s="5">
+        <v>8</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" ht="27" spans="12:16">
+      <c r="L78" s="5">
+        <v>9</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" ht="27" spans="12:16">
+      <c r="L79" s="5">
+        <v>10</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P79" s="5"/>
+    </row>
+    <row r="80" ht="27" spans="12:16">
+      <c r="L80" s="5">
+        <v>11</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" s="5"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5">
+      <c r="D110">
+        <v>3.1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7">
+      <c r="E112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7">
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7">
+      <c r="E114" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11">
+      <c r="F114" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7">
+      <c r="E115" s="3">
+        <v>3</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117">
+        <v>3.2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7">
+      <c r="E119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7">
+      <c r="E120" s="3">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F120" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7">
+      <c r="E121" s="3">
+        <v>2</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="5:7">
+      <c r="E122" s="3">
+        <v>3</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="5:7">
+      <c r="E123" s="3">
+        <v>4</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="5:7">
+      <c r="E124" s="3">
+        <v>5</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="5:7">
+      <c r="E125" s="3">
+        <v>6</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="5:7">
+      <c r="E126" s="3">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="5:7">
+      <c r="E127" s="3">
+        <v>8</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129">
+        <v>3.3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7">
+      <c r="E131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7">
+      <c r="E132" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12">
-        <v>1.1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" t="s">
+      <c r="F132" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7">
+      <c r="E133" s="3">
+        <v>2</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16">
-        <v>1.2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21">
-        <v>1.3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="12:16">
-      <c r="L76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="12:16">
-      <c r="L77" s="3">
+      <c r="D136" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="5:9">
+      <c r="E138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="5:9">
+      <c r="E139" s="3">
         <v>1</v>
       </c>
-      <c r="M77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="12:16">
-      <c r="L78" s="3">
-        <v>2</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="12:16">
-      <c r="L79" s="3">
-        <v>3</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="12:16">
-      <c r="L80" s="3">
-        <v>4</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="12:16">
-      <c r="L81" s="3">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" ht="27" spans="12:16">
-      <c r="L82" s="3">
-        <v>6</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="12:16">
-      <c r="L83" s="3">
-        <v>7</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="12:16">
-      <c r="L84" s="3">
-        <v>8</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" ht="27" spans="12:16">
-      <c r="L85" s="3">
-        <v>9</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O85" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" ht="27" spans="12:16">
-      <c r="L86" s="3">
-        <v>10</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O86" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" ht="27" spans="12:16">
-      <c r="L87" s="3">
-        <v>11</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="1"/>
+      <c r="F139" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G132" location="Sheet1!E21" display="参考图1.3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本目录" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>修订记录</t>
   </si>
@@ -50,6 +50,9 @@
     <t>1.1设计目的</t>
   </si>
   <si>
+    <t>主界面UI，玩家信息增加身份显示</t>
+  </si>
+  <si>
     <t>1.2设计思路</t>
   </si>
   <si>
@@ -116,10 +119,16 @@
     <t>修改备注</t>
   </si>
   <si>
+    <t>修改日期</t>
+  </si>
+  <si>
     <t>玩家头像</t>
   </si>
   <si>
     <t>单击，打开玩家信息界面</t>
+  </si>
+  <si>
+    <t>玩家名称下方显示当前身份</t>
   </si>
   <si>
     <t>元宝资源信息</t>
@@ -286,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -308,8 +317,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,11 +392,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,107 +452,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,7 +468,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,19 +552,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,25 +588,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,19 +630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,79 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,8 +686,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +727,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -703,35 +753,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,17 +772,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,16 +800,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,119 +818,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,12 +946,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -946,7 +964,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,6 +1039,48 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="11506200"/>
+          <a:ext cx="3905250" cy="6925945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1033,7 +1102,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1054,60 +1123,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3152775" y="11487150"/>
-          <a:ext cx="3952875" cy="6946900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1116,7 +1143,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="11830050"/>
+          <a:off x="4648200" y="11925300"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2991,36 +3018,37 @@
   <sheetPr/>
   <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="9.375"/>
     <col min="4" max="4" width="45.125" customWidth="1"/>
     <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
@@ -3035,65 +3063,77 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>43647</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="11:11">
-      <c r="K5" s="10" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43652</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="10" t="s">
-        <v>12</v>
+      <c r="K6" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="10:10">
-      <c r="J7" s="10" t="s">
-        <v>13</v>
+      <c r="J7" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="10" t="s">
-        <v>14</v>
+      <c r="J8" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="10" t="s">
-        <v>15</v>
+      <c r="K9" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="10" t="s">
-        <v>16</v>
+      <c r="K10" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="11:11">
-      <c r="K11" s="10" t="s">
-        <v>17</v>
+      <c r="K11" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="10:10">
-      <c r="J12" s="10" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3112,6 +3152,7 @@
     <hyperlink ref="K10" location="Sheet1!E117" display="3.2图标需求"/>
     <hyperlink ref="K11" location="Sheet1!E129" display="3.3场景需求"/>
     <hyperlink ref="J12" location="Sheet1!D136" display="4.音效需求"/>
+    <hyperlink ref="D5" location="版本目录!D66" display="主界面UI，玩家信息增加身份显示"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3121,10 +3162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:P139"/>
+  <dimension ref="C2:Q139"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="G73" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3134,12 +3175,12 @@
     <col min="13" max="13" width="12.875" customWidth="1"/>
     <col min="14" max="14" width="27.125" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -3147,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="4:5">
@@ -3155,12 +3196,12 @@
         <v>1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -3168,17 +3209,17 @@
         <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -3186,7 +3227,7 @@
         <v>1.3</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="3:4">
@@ -3194,176 +3235,192 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="12:16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="12:17">
       <c r="L69" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="12:16">
-      <c r="L70" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="12:17">
+      <c r="L70" s="3">
         <v>1</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-    </row>
-    <row r="71" spans="12:16">
-      <c r="L71" s="5">
+      <c r="M70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="12:17">
+      <c r="L71" s="3">
         <v>2</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-    </row>
-    <row r="72" spans="12:16">
-      <c r="L72" s="5">
+      <c r="M71" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="12:17">
+      <c r="L72" s="3">
         <v>3</v>
       </c>
-      <c r="M72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-    </row>
-    <row r="73" spans="12:16">
-      <c r="L73" s="5">
+      <c r="M72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="7"/>
+    </row>
+    <row r="73" spans="12:17">
+      <c r="L73" s="3">
         <v>4</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-    </row>
-    <row r="74" spans="12:16">
-      <c r="L74" s="5">
+      <c r="M73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="7"/>
+    </row>
+    <row r="74" spans="12:17">
+      <c r="L74" s="3">
         <v>5</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-    </row>
-    <row r="75" ht="27" spans="12:16">
-      <c r="L75" s="5">
+      <c r="M74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="7"/>
+    </row>
+    <row r="75" ht="27" spans="12:17">
+      <c r="L75" s="3">
         <v>6</v>
       </c>
-      <c r="M75" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O75" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P75" s="5"/>
-    </row>
-    <row r="76" spans="12:16">
-      <c r="L76" s="5">
+      <c r="M75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="7"/>
+    </row>
+    <row r="76" spans="12:17">
+      <c r="L76" s="3">
         <v>7</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-    </row>
-    <row r="77" spans="12:16">
-      <c r="L77" s="5">
+      <c r="M76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="7"/>
+    </row>
+    <row r="77" spans="12:17">
+      <c r="L77" s="3">
         <v>8</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-    </row>
-    <row r="78" ht="27" spans="12:16">
-      <c r="L78" s="5">
+      <c r="M77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="7"/>
+    </row>
+    <row r="78" ht="27" spans="12:17">
+      <c r="L78" s="3">
         <v>9</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P78" s="5"/>
-    </row>
-    <row r="79" ht="27" spans="12:16">
-      <c r="L79" s="5">
+      <c r="M78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="7"/>
+    </row>
+    <row r="79" ht="27" spans="12:17">
+      <c r="L79" s="3">
         <v>10</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O79" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P79" s="5"/>
-    </row>
-    <row r="80" ht="27" spans="12:16">
-      <c r="L80" s="5">
+      <c r="M79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="7"/>
+    </row>
+    <row r="80" ht="27" spans="12:17">
+      <c r="L80" s="3">
         <v>11</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N80" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P80" s="5"/>
+      <c r="M80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="7"/>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="1"/>
@@ -3373,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="4:5">
@@ -3381,18 +3438,18 @@
         <v>3.1</v>
       </c>
       <c r="E110" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="5:7">
@@ -3400,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="5:7">
@@ -3411,10 +3468,10 @@
         <v>2</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="5:7">
@@ -3422,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="4:5">
@@ -3433,18 +3490,18 @@
         <v>3.2</v>
       </c>
       <c r="E117" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="5:7">
@@ -3452,10 +3509,10 @@
         <v>1</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="5:7">
@@ -3463,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G121" s="3"/>
     </row>
@@ -3472,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G122" s="3"/>
     </row>
@@ -3481,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G123" s="3"/>
     </row>
@@ -3490,7 +3547,7 @@
         <v>5</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G124" s="3"/>
     </row>
@@ -3499,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G125" s="3"/>
     </row>
@@ -3508,7 +3565,7 @@
         <v>7</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G126" s="3"/>
     </row>
@@ -3517,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G127" s="3"/>
     </row>
@@ -3526,18 +3583,18 @@
         <v>3.3</v>
       </c>
       <c r="E129" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="5:7">
@@ -3545,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="5:7">
@@ -3556,10 +3613,10 @@
         <v>2</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="3:4">
@@ -3567,24 +3624,24 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="5:9">
       <c r="E138" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="5:9">
@@ -3592,16 +3649,16 @@
         <v>1</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】主界面及主场景规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="版本目录" sheetId="2" r:id="rId1"/>
@@ -296,9 +296,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -326,7 +326,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -341,7 +363,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -349,7 +371,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,8 +407,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -372,28 +423,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,46 +452,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,7 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,13 +486,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,25 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,13 +612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,61 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,19 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,26 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -723,36 +697,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,12 +718,62 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,149 +782,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,12 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -964,10 +952,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
@@ -3018,8 +3003,8 @@
   <sheetPr/>
   <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3031,24 +3016,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
@@ -3063,7 +3048,7 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3071,7 +3056,7 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>43647</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3080,7 +3065,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3088,51 +3073,51 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>43652</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="10:10">
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="11:11">
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="10:10">
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3152,7 +3137,7 @@
     <hyperlink ref="K10" location="Sheet1!E117" display="3.2图标需求"/>
     <hyperlink ref="K11" location="Sheet1!E129" display="3.3场景需求"/>
     <hyperlink ref="J12" location="Sheet1!D136" display="4.音效需求"/>
-    <hyperlink ref="D5" location="版本目录!D66" display="主界面UI，玩家信息增加身份显示"/>
+    <hyperlink ref="D5" location="Sheet1!p70" display="主界面UI，玩家信息增加身份显示"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3164,8 +3149,8 @@
   <sheetPr/>
   <dimension ref="C2:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G73" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView topLeftCell="E61" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3254,7 +3239,7 @@
       <c r="P69" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q69" s="6" t="s">
+      <c r="Q69" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3272,7 +3257,7 @@
       <c r="P70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q70" s="7"/>
+      <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="12:17">
       <c r="L71" s="3">
@@ -3286,7 +3271,7 @@
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="7"/>
+      <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="12:17">
       <c r="L72" s="3">
@@ -3300,7 +3285,7 @@
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="Q72" s="7"/>
+      <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="12:17">
       <c r="L73" s="3">
@@ -3314,7 +3299,7 @@
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="7"/>
+      <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="12:17">
       <c r="L74" s="3">
@@ -3328,7 +3313,7 @@
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="7"/>
+      <c r="Q74" s="3"/>
     </row>
     <row r="75" ht="27" spans="12:17">
       <c r="L75" s="3">
@@ -3344,7 +3329,7 @@
         <v>48</v>
       </c>
       <c r="P75" s="3"/>
-      <c r="Q75" s="7"/>
+      <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="12:17">
       <c r="L76" s="3">
@@ -3358,7 +3343,7 @@
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="7"/>
+      <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="12:17">
       <c r="L77" s="3">
@@ -3372,7 +3357,7 @@
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-      <c r="Q77" s="7"/>
+      <c r="Q77" s="3"/>
     </row>
     <row r="78" ht="27" spans="12:17">
       <c r="L78" s="3">
@@ -3388,7 +3373,7 @@
         <v>55</v>
       </c>
       <c r="P78" s="3"/>
-      <c r="Q78" s="7"/>
+      <c r="Q78" s="3"/>
     </row>
     <row r="79" ht="27" spans="12:17">
       <c r="L79" s="3">
@@ -3404,7 +3389,7 @@
         <v>58</v>
       </c>
       <c r="P79" s="3"/>
-      <c r="Q79" s="7"/>
+      <c r="Q79" s="3"/>
     </row>
     <row r="80" ht="27" spans="12:17">
       <c r="L80" s="3">
@@ -3420,7 +3405,7 @@
         <v>61</v>
       </c>
       <c r="P80" s="3"/>
-      <c r="Q80" s="7"/>
+      <c r="Q80" s="3"/>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="1"/>
@@ -3604,7 +3589,7 @@
       <c r="F132" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="6" t="s">
         <v>82</v>
       </c>
     </row>
